--- a/converted_files/837/wheelchair.xlsx
+++ b/converted_files/837/wheelchair.xlsx
@@ -1835,7 +1835,7 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>6901488a7e79911955eafe07</t>
+          <t>6918d0587f059d7aab1b4f8d</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
